--- a/7_Part 4 Graphics/Stadtteile_Ranking.xlsx
+++ b/7_Part 4 Graphics/Stadtteile_Ranking.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,13 +443,14 @@
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Stadtteil</t>
+          <t>Start Stadtteil</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -458,6 +459,11 @@
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Ziel Stadtteil</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Anzahl Ziele</t>
         </is>
@@ -472,7 +478,12 @@
       <c r="B2" s="3" t="n">
         <v>2258</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Innenstadt-West</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>2258</v>
       </c>
     </row>
@@ -485,7 +496,12 @@
       <c r="B3" s="3" t="n">
         <v>534</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Hagsfeld</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>534</v>
       </c>
     </row>
@@ -498,7 +514,12 @@
       <c r="B4" s="3" t="n">
         <v>473</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Oststadt</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>473</v>
       </c>
     </row>
@@ -511,7 +532,12 @@
       <c r="B5" s="3" t="n">
         <v>340</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Stupferich</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>340</v>
       </c>
     </row>
@@ -524,7 +550,12 @@
       <c r="B6" s="3" t="n">
         <v>261</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Südweststadt</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>261</v>
       </c>
     </row>
@@ -537,7 +568,12 @@
       <c r="B7" s="3" t="n">
         <v>231</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Durlach</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>231</v>
       </c>
     </row>
@@ -550,7 +586,12 @@
       <c r="B8" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Grötzingen</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>224</v>
       </c>
     </row>
@@ -563,7 +604,12 @@
       <c r="B9" s="3" t="n">
         <v>216</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Weststadt</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>216</v>
       </c>
     </row>
@@ -576,7 +622,12 @@
       <c r="B10" s="3" t="n">
         <v>162</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Südstadt</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>162</v>
       </c>
     </row>
@@ -589,7 +640,12 @@
       <c r="B11" s="3" t="n">
         <v>159</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Neureut</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>159</v>
       </c>
     </row>
@@ -602,7 +658,12 @@
       <c r="B12" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Mühlburg</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>136</v>
       </c>
     </row>
@@ -615,7 +676,12 @@
       <c r="B13" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Rintheim</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>113</v>
       </c>
     </row>
@@ -628,7 +694,12 @@
       <c r="B14" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Nordstadt</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>110</v>
       </c>
     </row>
@@ -641,7 +712,12 @@
       <c r="B15" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Weiherfeld-Dammerstock</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
         <v>99</v>
       </c>
     </row>
@@ -654,7 +730,12 @@
       <c r="B16" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Palmbach</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>95</v>
       </c>
     </row>
@@ -667,7 +748,12 @@
       <c r="B17" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Grünwettersbach</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>65</v>
       </c>
     </row>
@@ -680,7 +766,12 @@
       <c r="B18" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Rüppurr</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>60</v>
       </c>
     </row>
@@ -693,7 +784,12 @@
       <c r="B19" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Nordweststadt</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>59</v>
       </c>
     </row>
@@ -706,7 +802,12 @@
       <c r="B20" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Waldstadt</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
         <v>58</v>
       </c>
     </row>
@@ -719,7 +820,12 @@
       <c r="B21" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Daxlanden</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
         <v>57</v>
       </c>
     </row>
@@ -732,7 +838,12 @@
       <c r="B22" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Knielingen</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
         <v>55</v>
       </c>
     </row>
@@ -745,7 +856,12 @@
       <c r="B23" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Oberreut</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
         <v>54</v>
       </c>
     </row>
@@ -758,7 +874,12 @@
       <c r="B24" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Innenstadt-Ost</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
         <v>53</v>
       </c>
     </row>
@@ -771,7 +892,12 @@
       <c r="B25" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Hohenwettersbach</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
         <v>51</v>
       </c>
     </row>
@@ -784,7 +910,12 @@
       <c r="B26" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Wolfartsweier</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
         <v>50</v>
       </c>
     </row>
@@ -797,7 +928,12 @@
       <c r="B27" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Beiertheim-Bulach</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
         <v>40</v>
       </c>
     </row>
@@ -810,12 +946,17 @@
       <c r="B28" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Grünwinkel</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C28"/>
+  <autoFilter ref="A1:D28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/7_Part 4 Graphics/Stadtteile_Ranking.xlsx
+++ b/7_Part 4 Graphics/Stadtteile_Ranking.xlsx
@@ -1,144 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7addfb42b1ae9372/Hochschule Karlsruhe/2. Semester/Programmieren/AA_Projektarbeiten/Projekt 1/Traffic_Flow_Analysis_Tool-1/7_Part 4 Graphics/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2B59732716C07C24F928BD1158BBF8316DEFE476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="360" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
-  <si>
-    <t>Start Stadtteil</t>
-  </si>
-  <si>
-    <t>Anzahl Starts</t>
-  </si>
-  <si>
-    <t>Ziel Stadtteil</t>
-  </si>
-  <si>
-    <t>Anzahl Ziele</t>
-  </si>
-  <si>
-    <t>Innenstadt-West</t>
-  </si>
-  <si>
-    <t>Hagsfeld</t>
-  </si>
-  <si>
-    <t>Oststadt</t>
-  </si>
-  <si>
-    <t>Stupferich</t>
-  </si>
-  <si>
-    <t>Südweststadt</t>
-  </si>
-  <si>
-    <t>Durlach</t>
-  </si>
-  <si>
-    <t>Grötzingen</t>
-  </si>
-  <si>
-    <t>Weststadt</t>
-  </si>
-  <si>
-    <t>Südstadt</t>
-  </si>
-  <si>
-    <t>Neureut</t>
-  </si>
-  <si>
-    <t>Mühlburg</t>
-  </si>
-  <si>
-    <t>Rintheim</t>
-  </si>
-  <si>
-    <t>Nordstadt</t>
-  </si>
-  <si>
-    <t>Weiherfeld-Dammerstock</t>
-  </si>
-  <si>
-    <t>Palmbach</t>
-  </si>
-  <si>
-    <t>Grünwettersbach</t>
-  </si>
-  <si>
-    <t>Rüppurr</t>
-  </si>
-  <si>
-    <t>Nordweststadt</t>
-  </si>
-  <si>
-    <t>Waldstadt</t>
-  </si>
-  <si>
-    <t>Daxlanden</t>
-  </si>
-  <si>
-    <t>Knielingen</t>
-  </si>
-  <si>
-    <t>Oberreut</t>
-  </si>
-  <si>
-    <t>Innenstadt-Ost</t>
-  </si>
-  <si>
-    <t>Hohenwettersbach</t>
-  </si>
-  <si>
-    <t>Wolfartsweier</t>
-  </si>
-  <si>
-    <t>Beiertheim-Bulach</t>
-  </si>
-  <si>
-    <t>Grünwinkel</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,46 +48,99 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,413 +428,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Start Stadtteil</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Anzahl Starts</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Ziel Stadtteil</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Anzahl Ziele</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Innenstadt-West</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>2258</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Innenstadt-West</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>2258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Hagsfeld</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>534</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Hagsfeld</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Oststadt</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>473</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Oststadt</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Stupferich</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>340</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Stupferich</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Südweststadt</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>261</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Südweststadt</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Durlach</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>231</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Durlach</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Grötzingen</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Grötzingen</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Weststadt</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>216</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Weststadt</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Südstadt</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>162</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Südstadt</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Neureut</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
         <v>159</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Neureut</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Mühlburg</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Mühlburg</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Rintheim</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Rintheim</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Nordstadt</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Nordstadt</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Weiherfeld-Dammerstock</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Weiherfeld-Dammerstock</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Palmbach</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Palmbach</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Grünwettersbach</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Grünwettersbach</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Rüppurr</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Rüppurr</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Nordweststadt</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Nordweststadt</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Waldstadt</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Waldstadt</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Daxlanden</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Daxlanden</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Knielingen</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Knielingen</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Oberreut</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Oberreut</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Innenstadt-Ost</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Innenstadt-Ost</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Hohenwettersbach</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Hohenwettersbach</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Wolfartsweier</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Wolfartsweier</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Beiertheim-Bulach</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Beiertheim-Bulach</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Grünwinkel</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Grünwinkel</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>